--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90076\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25393BC-5B0B-46D4-BF64-0528D34E5B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>聚合剂</t>
   </si>
@@ -324,11 +323,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,37 +774,115 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -840,7 +921,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F7042B-03A1-46C1-BC25-0D747CC1CFE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F7042B-03A1-46C1-BC25-0D747CC1CFE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +971,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9423B82E-4392-46F0-AECB-FF205EC1D7C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9423B82E-4392-46F0-AECB-FF205EC1D7C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +1021,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED97D35-F3A6-40A6-9163-91F8D8E7463C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED97D35-F3A6-40A6-9163-91F8D8E7463C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,13 +1057,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -990,7 +1071,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392DE41-9B3C-4947-8670-D8ABD0B6C37A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392DE41-9B3C-4947-8670-D8ABD0B6C37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,13 +1107,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>64275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>784275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1040,7 +1121,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CC78BA-794B-4353-B3F1-7FBAE750BDF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CC78BA-794B-4353-B3F1-7FBAE750BDF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,13 +1157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>61875</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1090,7 +1171,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC6DB63-C316-4CED-B9E0-8350839344D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC6DB63-C316-4CED-B9E0-8350839344D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1193,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="490500" y="1247775"/>
+          <a:off x="490500" y="1743075"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1126,13 +1207,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1140,7 +1221,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC360CC3-94EB-4112-AA0A-D387D64A4E0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC360CC3-94EB-4112-AA0A-D387D64A4E0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,13 +1257,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>777075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,7 +1271,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580CAD89-3C6A-4AA7-86EA-D1D7B7D6697F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580CAD89-3C6A-4AA7-86EA-D1D7B7D6697F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,13 +1307,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1240,7 +1321,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD51707C-20BD-4490-8436-90EB0D5BD85D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD51707C-20BD-4490-8436-90EB0D5BD85D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,13 +1357,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>61800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1290,7 +1371,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B8DF3C-EBBF-421D-A531-E41275119F79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B8DF3C-EBBF-421D-A531-E41275119F79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,14 +1406,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>40350</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>760350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>779400</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1340,7 +1421,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5DC473-8D6A-40E7-9C78-FDFF638208D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5DC473-8D6A-40E7-9C78-FDFF638208D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2088225" y="1247775"/>
+          <a:off x="2107275" y="1743075"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1375,22 +1456,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47476</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>66526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>767476</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>234226</xdr:rowOff>
+      <xdr:colOff>786526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>224701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B7DF99-28D5-479A-A2B4-0C0B0BDBB0D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B7DF99-28D5-479A-A2B4-0C0B0BDBB0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1493,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285726" y="1247776"/>
+          <a:off x="1304776" y="1733551"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1425,14 +1506,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>777150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>786675</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1440,7 +1521,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53882F10-EF9E-4D31-AFD4-57BF52CE52C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53882F10-EF9E-4D31-AFD4-57BF52CE52C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1543,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1247775"/>
+          <a:off x="6972300" y="1495425"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1476,13 +1557,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1490,7 +1571,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C853A0F2-0E2F-4560-AD07-C84D36773F7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C853A0F2-0E2F-4560-AD07-C84D36773F7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,13 +1607,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>774750</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1540,7 +1621,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F9A308-8D75-4471-BB5A-402E979A43DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F9A308-8D75-4471-BB5A-402E979A43DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,13 +1657,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1590,7 +1671,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD309E1-C52C-4285-A4A0-4D8E49C8EEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD309E1-C52C-4285-A4A0-4D8E49C8EEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,13 +1707,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40425</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>11850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>760425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>236550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1640,7 +1721,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B586E33A-17DD-4F28-8E0D-B874A893F03A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B586E33A-17DD-4F28-8E0D-B874A893F03A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,22 +1756,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9450</xdr:rowOff>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>234150</xdr:rowOff>
+      <xdr:colOff>786600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>243675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C7B2EA-7446-4A81-A993-FFF4BF6D5AF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C7B2EA-7446-4A81-A993-FFF4BF6D5AF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1793,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476175" y="2981250"/>
+          <a:off x="495225" y="3733725"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1725,14 +1806,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>83250</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>803250</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1740,7 +1821,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B1CBDF-44DC-45FA-8A29-52618F99730F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B1CBDF-44DC-45FA-8A29-52618F99730F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1283400" y="2978850"/>
+          <a:off x="1321500" y="3721800"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1776,13 +1857,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>14175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>772275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1790,7 +1871,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730DFCC-08E4-4BC5-A44A-AC8266B56FAC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730DFCC-08E4-4BC5-A44A-AC8266B56FAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,13 +1907,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>11775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>236475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1840,7 +1921,7 @@
         <xdr:cNvPr id="43" name="图片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D8F5B3-079F-478C-9E90-FC9AB7752A40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D8F5B3-079F-478C-9E90-FC9AB7752A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,13 +1957,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>777000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>234075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1890,7 +1971,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79ACAB41-5B32-465A-A910-7EF325D5FD45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79ACAB41-5B32-465A-A910-7EF325D5FD45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,13 +2007,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>6975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1940,7 +2021,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BA7FF-72CB-4923-A339-A4A1848F830A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BA7FF-72CB-4923-A339-A4A1848F830A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,13 +2057,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>758100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1990,7 +2071,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B412BCB5-BCE2-4B51-96CD-8D52FADD9707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B412BCB5-BCE2-4B51-96CD-8D52FADD9707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,13 +2107,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>765225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>241350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2040,7 +2121,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CD1992-C9DE-41EF-9113-03B40795A7FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CD1992-C9DE-41EF-9113-03B40795A7FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,13 +2157,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>23775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2090,7 +2171,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E2FFA9-29B7-4CFF-AD7D-4D55694C7B02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E2FFA9-29B7-4CFF-AD7D-4D55694C7B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,14 +2206,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>59475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>69000</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>21375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>779475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>789000</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>246075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2140,7 +2221,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B5FFD-2B16-4310-A07C-9DEA912E7578}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B5FFD-2B16-4310-A07C-9DEA912E7578}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2243,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1297725" y="4726725"/>
+          <a:off x="1307250" y="5717325"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2176,13 +2257,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>243675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2190,7 +2271,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6A08B-CAD5-41D6-9CB1-22F453C8B3A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6A08B-CAD5-41D6-9CB1-22F453C8B3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,14 +2306,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>73725</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>793725</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>241275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2240,7 +2321,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94E80C6-31F0-45B7-B7A8-75CEAF8FAA72}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94E80C6-31F0-45B7-B7A8-75CEAF8FAA72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="483300" y="4721925"/>
+          <a:off x="502350" y="5712525"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,11 +2652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5384DA-45B6-4F98-AF4D-A7E32B48E35D}">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2606,13 +2687,13 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2622,13 +2703,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2659,9 +2740,15 @@
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="6"/>
@@ -2672,36 +2759,45 @@
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="40">
+        <f>IF(B5-B6&gt;0,B5-B6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <f>IF(C5-C6&gt;0,C5-C6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <f>IF(D5-D6&gt;0,D5-D6,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,162 +2816,211 @@
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>47</v>
-      </c>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="21">
+        <f>D7*1</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <f>C7*1</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <f>D7*1</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <f>D7*1</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <f>C7*2</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <f>B7*1</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="21">
+        <f>B7*1</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="22">
+        <f>B7*1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12">
-        <f>D5-D6+B12-B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <f>C5-C6+C12-C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <f>D12-D13</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <f>E12-E13</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <f>D5-D6+F12-F13</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <f>D5-D6+G12-G13</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <f>2*(C5-C6)+H12-H13</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <f>B5-B6+I12-I13</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <f>B5-B6+J12-J13</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <f>B5-B6+K12-K13</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>6</v>
+      </c>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12">
+        <f>IF(B13-B14&gt;0,B13-B14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:K15" si="0">IF(C13-C14&gt;0,C13-C14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -2888,10 +3033,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="16"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
@@ -2902,306 +3046,417 @@
       <c r="H17" s="2"/>
       <c r="I17" s="16"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K20" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="B21" s="21">
+        <f>B15*4+K15*2</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <f>F15*1+I15*1</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <f>D15*2+F15*1+J15*1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <f>E15*2+G15*1+H15*1</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <f>E15*1+F15*2+I15*1</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="21">
+        <f>D15*1+G15*2+K15*1</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <f>D15*1+H15*1+J15*1</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="21">
+        <f>I15*1</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="21">
+        <f>E15*1+G15*1+J15*2</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="22">
+        <f>H15*1+K15*1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>10</v>
+      </c>
+      <c r="G22" s="21">
+        <v>11</v>
+      </c>
+      <c r="H22" s="21">
+        <v>106</v>
+      </c>
+      <c r="I22" s="21">
+        <v>93</v>
+      </c>
+      <c r="J22" s="21">
+        <v>2</v>
+      </c>
+      <c r="K22" s="22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12">
-        <f>2*(C14+K14)+4*B14+B20-B21</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <f>C14+F14+I14+C20-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <f>2*D14+F14+J14+D20-D21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <f>G14+H14+2*E14-E21+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <f>2*F14+E14+I14+F20-F21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <f>K14+2*G14+D14+G20-G21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <f>D14+H14+J14+H20-H21</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <f>I14+C14+I20-I21</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <f>2*J14+G14+E14+J20-J21</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <f>H14+K14+K20-K21</f>
+      <c r="B23" s="12">
+        <f>IF(B21-B22&gt;0,B21-B22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" ref="C23:K23" si="1">IF(C21-C22&gt;0,C21-C22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38" t="s">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>24</v>
-      </c>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>54</v>
-      </c>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="21">
+        <f>B23*5</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="21">
+        <f>C23*4</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="21">
+        <f>D23*4</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="21">
+        <f>E23*4</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <f>F23*4</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <f>G23*4</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="B30" s="21">
+        <v>58</v>
+      </c>
+      <c r="C30" s="21">
+        <v>5</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>6</v>
+      </c>
+      <c r="F30" s="21">
+        <v>16</v>
+      </c>
+      <c r="G30" s="22">
+        <v>8</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="12">
-        <f>5*B22+B28-B29</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
-        <f>4*C22+C28-C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <f>4*D22+D28-D29</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>4*E22+E28-E29</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <f>4*F22+F28-F29</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <f>4*G22+G28-G29</f>
+      <c r="B31" s="12">
+        <f>IF(B29-B30&gt;0,B29-B30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:G31" si="2">IF(C29-C30&gt;0,C29-C30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A15:XFD15">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>